--- a/samples/Net.Core.Sample/Excels/TableWithHeaders.xlsx
+++ b/samples/Net.Core.Sample/Excels/TableWithHeaders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Number</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>ADate</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -76,9 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,20 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -409,8 +419,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -423,8 +436,11 @@
       <c r="E3" s="1">
         <v>29351</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -438,7 +454,7 @@
         <v>29352</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -451,8 +467,11 @@
       <c r="E5" s="1">
         <v>29353</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -466,7 +485,7 @@
         <v>29354</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -478,6 +497,9 @@
       </c>
       <c r="E7" s="1">
         <v>29355</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/samples/Net.Core.Sample/Excels/TableWithHeaders.xlsx
+++ b/samples/Net.Core.Sample/Excels/TableWithHeaders.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
